--- a/data/NLmatrices4x4.xlsx
+++ b/data/NLmatrices4x4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CharlieBoi/Documents/Uni shit/AI/Master/Year 1/Design of MultiAgent Systems/Project/A05-MAS-virus-spreading/model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CharlieBoi/Documents/Uni shit/AI/Master/Year 1/Design of MultiAgent Systems/Project/A05-MAS-virus-spreading/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F75E4-4290-584B-995F-B8906A509585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE63F51D-55F3-574C-AF4D-F9EBD01AAC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6640" yWindow="-23540" windowWidth="21080" windowHeight="22060" activeTab="4" xr2:uid="{73DE3FF3-E5E1-F041-99F1-7A2D2A3ABA56}"/>
+    <workbookView xWindow="420" yWindow="-23020" windowWidth="21080" windowHeight="22060" xr2:uid="{73DE3FF3-E5E1-F041-99F1-7A2D2A3ABA56}"/>
   </bookViews>
   <sheets>
     <sheet name="NL_all_locations" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -59,8 +67,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,72 +387,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B741D8F4-8EEE-D243-AE73-B840CDDE9A6A}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="7.6640625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
         <v>2.9406420226951004</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>0.64457193241738908</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>0.5785071253908558</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>6.9653157449292125E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0.88004513520449912</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2.295830212313501</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.5172101883516149</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>5.2586065098200706E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>0.43562759680533897</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1.2512054905021617</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1.9881681295588598</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.17507514070309368</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>8.5944068634692491E-2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.2513091001824021</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.4514250700558991</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.62366606973343708</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:D4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -449,69 +478,83 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="7.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
         <v>0.35029967343765633</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>7.5889414809687347E-2</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>0.28169342176616013</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>1.501776384171387E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0.16430404323889478</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.27564155333482787</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>9.9910779919794648E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1.0673633074418964E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>0.2430914243993767</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>6.7703995581484391E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.22421295522822288</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1.3260354271418126E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1.8866608470118455E-2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1.0923439300670185E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1.7997639368043238E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.19220746928291652</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:D4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -520,69 +563,83 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="7.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
         <v>7.6432005643256862E-2</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>0.12907261355999697</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>7.4955349215121772E-2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>3.6558829836710808E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0.11625350768427732</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.91006658660489514</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.62839013613701467</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>4.7646892601726908E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>0.11386005669731465</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.6693050856953866</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.85918406175077033</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>4.9801439662324719E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1.9044838783457748E-2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.10703488026344399</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.15448702727996816</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1.2967667184389879E-2</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:D4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -591,69 +648,83 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="7.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
         <v>1.4302826525707557</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>1.431443602300733E-2</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>1.44919557645101E-2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>7.6798710271305554E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>3.1067619287187303E-2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>4.5997919485163824E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.0938589749065602E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1.0627995183147927E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>6.031902411902644E-2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1.2700381795685299E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1.6944513593083497E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1.1791595778839867E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1.4076086413425453E-2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3.5673585302648456E-3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>9.4427918001980665E-3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>6.9181771703194887E-3</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:D4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -661,69 +732,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C0B6BA-78BF-2F41-A9A4-CFC09357B8C4}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="7.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
         <v>2.9557537374133154</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>0.69272503834789179</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>0.2649970174936836</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>4.4912700976510546E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0.49548324736443233</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1.0603229769835565</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.1676935208030641</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1.4723115651014385E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>0.13064881428596603</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.19043959697497531</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>9.6863832762733026E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1.364540436160111E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3.16852974899198E-2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>5.5073545662416235E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3.3372787031313425E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1.5002972335513835E-2</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:D4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>